--- a/Escritorio/Data/Clientes.xlsx
+++ b/Escritorio/Data/Clientes.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +256,244 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Numero de Celular</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Direccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>72379469</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gerardo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>951052537</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ventanilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>78945612</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12312312</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lima</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Escritorio/Data/Clientes.xlsx
+++ b/Escritorio/Data/Clientes.xlsx
@@ -474,10 +474,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>78945612</t>
-        </is>
+      <c r="A3" t="n">
+        <v>78945612</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>

--- a/Escritorio/Data/Clientes.xlsx
+++ b/Escritorio/Data/Clientes.xlsx
@@ -1,37 +1,443 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Equipo\Proyectos\Almacen Rosaly\Almacen-Rosaly\Escritorio\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DA0B4-D5BE-4127-B209-AD492B0A8D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8145" yWindow="3390" windowWidth="18450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="128">
+  <si>
+    <t>Dni</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Numero de Celular</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Monica Mansilla</t>
+  </si>
+  <si>
+    <t>7 Portales E-23</t>
+  </si>
+  <si>
+    <t>Restaurante Maki Mari</t>
+  </si>
+  <si>
+    <t>Paty Alfaro</t>
+  </si>
+  <si>
+    <t>Laureles D4_40</t>
+  </si>
+  <si>
+    <t>Yeison Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-4 Oasis </t>
+  </si>
+  <si>
+    <t>Jorge Salvatierra</t>
+  </si>
+  <si>
+    <t>Esm. 4. Naranjas B10 -17</t>
+  </si>
+  <si>
+    <t>Fatima Apolaya</t>
+  </si>
+  <si>
+    <t>Javier Sologurem Q7-7</t>
+  </si>
+  <si>
+    <t>Moises Gomez</t>
+  </si>
+  <si>
+    <t>Casuarinas I-10</t>
+  </si>
+  <si>
+    <t>Shiomare Molina</t>
+  </si>
+  <si>
+    <t>Laureles D4-40</t>
+  </si>
+  <si>
+    <t>Ximena Prado</t>
+  </si>
+  <si>
+    <t>C. Valle I-19</t>
+  </si>
+  <si>
+    <t>Joseph Cuya</t>
+  </si>
+  <si>
+    <t>T.V. 31-301</t>
+  </si>
+  <si>
+    <t>Yair Reyes</t>
+  </si>
+  <si>
+    <t>C. Valle B-3</t>
+  </si>
+  <si>
+    <t>Tifanny Gonzales</t>
+  </si>
+  <si>
+    <t>C.Valle G-10</t>
+  </si>
+  <si>
+    <t>Darlyn Poma</t>
+  </si>
+  <si>
+    <t>Real A4-304</t>
+  </si>
+  <si>
+    <t>Edson Sanchez</t>
+  </si>
+  <si>
+    <t>Cascada G3-4</t>
+  </si>
+  <si>
+    <t>Jaime Marin</t>
+  </si>
+  <si>
+    <t>C. Valle P-3</t>
+  </si>
+  <si>
+    <t>Valeria Baca</t>
+  </si>
+  <si>
+    <t>Cast. Lark Capilla Caseta Casa de dos pisos</t>
+  </si>
+  <si>
+    <t>Erika Usandivares</t>
+  </si>
+  <si>
+    <t>Jazmines F4- 8</t>
+  </si>
+  <si>
+    <t>Ricardo Condori</t>
+  </si>
+  <si>
+    <t>C. Valle U-7</t>
+  </si>
+  <si>
+    <t>Cevicheria Sol del Mar</t>
+  </si>
+  <si>
+    <t>Pacos Bill</t>
+  </si>
+  <si>
+    <t>Rocio Riz</t>
+  </si>
+  <si>
+    <t>Cast. Lark Porton plomo</t>
+  </si>
+  <si>
+    <t>Sebastian Quispe</t>
+  </si>
+  <si>
+    <t>Brisas L-4</t>
+  </si>
+  <si>
+    <t>Maricielo Ávila</t>
+  </si>
+  <si>
+    <t>Resid. Cascada E-3</t>
+  </si>
+  <si>
+    <t>Julio Torres</t>
+  </si>
+  <si>
+    <t>Brisas D-7</t>
+  </si>
+  <si>
+    <t>Paulo Rodriguez</t>
+  </si>
+  <si>
+    <t>Oasis A-23</t>
+  </si>
+  <si>
+    <t>Pedro Linares</t>
+  </si>
+  <si>
+    <t>Cipreses A5-31 2do piso</t>
+  </si>
+  <si>
+    <t>Juana Rojas</t>
+  </si>
+  <si>
+    <t>Esm. 4. Naranjas C08 -21</t>
+  </si>
+  <si>
+    <t>Percy Lopez</t>
+  </si>
+  <si>
+    <t>Laureles  B2-15</t>
+  </si>
+  <si>
+    <t>Brianda Jauregui</t>
+  </si>
+  <si>
+    <t>C. Valle F-2</t>
+  </si>
+  <si>
+    <t>Hilda Morales</t>
+  </si>
+  <si>
+    <t>Oasis B-35</t>
+  </si>
+  <si>
+    <t>Ursula Arbolda</t>
+  </si>
+  <si>
+    <t>Restaurante Molly</t>
+  </si>
+  <si>
+    <t>Isabel Álvarez</t>
+  </si>
+  <si>
+    <t>7 Portales C-35</t>
+  </si>
+  <si>
+    <t>Marcos Ruiz</t>
+  </si>
+  <si>
+    <t>Oasis A-14</t>
+  </si>
+  <si>
+    <t>Valeria Cruz</t>
+  </si>
+  <si>
+    <t>Laureles A4-31</t>
+  </si>
+  <si>
+    <t>Juan Damiano</t>
+  </si>
+  <si>
+    <t>Brisas K-3</t>
+  </si>
+  <si>
+    <t>Carolina Mendoza</t>
+  </si>
+  <si>
+    <t>Resid. Cascada B-2</t>
+  </si>
+  <si>
+    <t>Vania Arrunategui</t>
+  </si>
+  <si>
+    <t>C.Valle B-08</t>
+  </si>
+  <si>
+    <t>Lucas Díaz</t>
+  </si>
+  <si>
+    <t>Real C5-203</t>
+  </si>
+  <si>
+    <t>Nayheli Ramon</t>
+  </si>
+  <si>
+    <t>Javier Sologurem F7-6</t>
+  </si>
+  <si>
+    <t>Lizet Flores</t>
+  </si>
+  <si>
+    <t>C.Valle H-24</t>
+  </si>
+  <si>
+    <t>Guillermo Cabrera</t>
+  </si>
+  <si>
+    <t>Real C5-402</t>
+  </si>
+  <si>
+    <t>Jesus Montoya</t>
+  </si>
+  <si>
+    <t>Cascada B3-3</t>
+  </si>
+  <si>
+    <t>Ana Martinez</t>
+  </si>
+  <si>
+    <t>C. Valle O-5</t>
+  </si>
+  <si>
+    <t>Luciana Peña</t>
+  </si>
+  <si>
+    <t>Cast. Lark Capilla Casa ploma 1 piso</t>
+  </si>
+  <si>
+    <t>Mriela Huaman</t>
+  </si>
+  <si>
+    <t>Cascada B5-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menú Ñusta </t>
+  </si>
+  <si>
+    <t>C.Valle H- 1</t>
+  </si>
+  <si>
+    <t>Rosa Arcos</t>
+  </si>
+  <si>
+    <t>Esm. 4. Naranjas C04 -16</t>
+  </si>
+  <si>
+    <t>Pamela Canchari</t>
+  </si>
+  <si>
+    <t>Laureles E2-34</t>
+  </si>
+  <si>
+    <t>Fernando Campares</t>
+  </si>
+  <si>
+    <t>Brisas M-5</t>
+  </si>
+  <si>
+    <t>Yola Blas</t>
+  </si>
+  <si>
+    <t>Casuarinas D-11</t>
+  </si>
+  <si>
+    <t>Franco Garrido</t>
+  </si>
+  <si>
+    <t>Cipreses C5-48</t>
+  </si>
+  <si>
+    <t>Carla Bravo</t>
+  </si>
+  <si>
+    <t>Brisas L-1</t>
+  </si>
+  <si>
+    <t>Amelia Huamaní</t>
+  </si>
+  <si>
+    <t>Cipreses A5-72</t>
+  </si>
+  <si>
+    <t>Margarita Caceres</t>
+  </si>
+  <si>
+    <t>Real C1-301</t>
+  </si>
+  <si>
+    <t>David Romero</t>
+  </si>
+  <si>
+    <t>Jazmines A2- 8</t>
+  </si>
+  <si>
+    <t>Dennis Montero</t>
+  </si>
+  <si>
+    <t>Oasis D-14</t>
+  </si>
+  <si>
+    <t>Kevin Fernandez</t>
+  </si>
+  <si>
+    <t>Nancy León</t>
+  </si>
+  <si>
+    <t>Cast. Lark A-5</t>
+  </si>
+  <si>
+    <t>Solansh Guarniz</t>
+  </si>
+  <si>
+    <t>Brisas N-4</t>
+  </si>
+  <si>
+    <t>Maria Perez</t>
+  </si>
+  <si>
+    <t>Javier Sologurem P8-2</t>
+  </si>
+  <si>
+    <t>Lucia Lunares</t>
+  </si>
+  <si>
+    <t>Cipreses F6-59</t>
+  </si>
+  <si>
+    <t>Rosaly Vargas</t>
+  </si>
+  <si>
+    <t>Casuarinas H-3</t>
+  </si>
+  <si>
+    <t>Johan García</t>
+  </si>
+  <si>
+    <t>Jazmines E4-9</t>
+  </si>
+  <si>
+    <t>Victor Vera</t>
+  </si>
+  <si>
+    <t>Oasis B-33</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +452,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,75 +776,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dni</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Numero de Celular</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>72379469</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gerardo</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>951052537</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ventanilla</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>78945612</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pedro</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12312312</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lima</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>54253931</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>979243334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(10000000,99999999)</f>
+        <v>56425117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>925505902</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f ca="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>60442547</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>945683678</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>13589767</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>975836548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>45122899</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>975836548</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20935781</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>965837342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16323041</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>975834831</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>85996607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>912684726</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>25226322</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>974366788</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="0"/>
+        <v>31648244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>954781883</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="0"/>
+        <v>75482305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>912688004</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="0"/>
+        <v>11132150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>968273650</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="0"/>
+        <v>95833132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>950392845</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10008923</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>913685472</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="0"/>
+        <v>92060079</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>907448364</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="0"/>
+        <v>51768791</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>990979723</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="0"/>
+        <v>92175189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>914387489</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10155284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>973274354</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="0"/>
+        <v>41201995</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>962563821</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ca="1" si="0"/>
+        <v>82748463</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>901637533</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ca="1" si="0"/>
+        <v>94388990</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>913685472</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ca="1" si="0"/>
+        <v>93470729</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>935595902</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>46212968</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>945903678</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>95322037</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>975679247</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>29807924</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>975870654</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>53789417</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>965884942</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>45248573</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>935734831</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>39495874</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>912604778</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>37946495</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>974300789</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>47157160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>950707483</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>48633973</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>926128904</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>97818000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>936583650</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>95753158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>946537486</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>10733425</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>934547283</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>81989242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>967367384</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>90831031</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>928959902</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>92281133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>994068078</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>70626689</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>975836548</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>65893959</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>989580548</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>34096231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>973258067</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>51382899</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>929015052</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>27163157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>906545355</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>22491991</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>956458790</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>75111994</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>979096405</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>23556024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>966598796</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>84017096</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>949978653</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>85787463</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>997453345</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>22830525</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>974306088</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>61082471</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50">
+        <v>945674542</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>38640163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51">
+        <v>978742587</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>75653078</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>927347263</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>82028089</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>902263632</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>52460158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <v>952354732</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>94193250</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <v>901023774</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>82015491</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56">
+        <v>911734302</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>51950843</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57">
+        <v>942354728</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>90749214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58">
+        <v>977382672</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>27016620</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59">
+        <v>992372302</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>72289499</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60">
+        <v>932463482</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>38557488</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>923672632</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>98832700</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62">
+        <v>923675472</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>59630313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>936724398</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>68365028</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64">
+        <v>992367253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>80779472</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65">
+        <v>923648273</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>40922861</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66">
+        <v>915635109</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A81" ca="1" si="1">RANDBETWEEN(10000000,99999999)</f>
+        <v>13498795</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67">
+        <v>979096405</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ca="1" si="1"/>
+        <v>90490033</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68">
+        <v>966598796</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ca="1" si="1"/>
+        <v>52508157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69">
+        <v>949978653</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" ca="1" si="1"/>
+        <v>26910323</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70">
+        <v>997453345</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" ca="1" si="1"/>
+        <v>69665944</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71">
+        <v>974306088</v>
+      </c>
+      <c r="D71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ca="1" si="1"/>
+        <v>88770340</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>945674542</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ca="1" si="1"/>
+        <v>45789833</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73">
+        <v>978742587</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ca="1" si="1"/>
+        <v>69980949</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74">
+        <v>927347263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ca="1" si="1"/>
+        <v>28948461</v>
+      </c>
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75">
+        <v>902263632</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" ca="1" si="1"/>
+        <v>14061601</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>952354732</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ca="1" si="1"/>
+        <v>30102936</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77">
+        <v>901023774</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" ca="1" si="1"/>
+        <v>65048552</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78">
+        <v>945674542</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" ca="1" si="1"/>
+        <v>20675034</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>978742587</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" ca="1" si="1"/>
+        <v>34021103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80">
+        <v>927347263</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" ca="1" si="1"/>
+        <v>71294997</v>
+      </c>
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81">
+        <v>902263632</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
